--- a/500all/speech_level/speeches_CHRG-114hhrg94185.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94185.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400365</t>
   </si>
   <si>
-    <t>F. James Sensenbrenner, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. The Subcommittee on Crime, Terrorism, Homeland Security, and Investigations will come to order.    Let me say, we are due to have roll calls a little bit after 3:15, and in order to save time, I am going to ask unanimous consent to put my opening statement into the record and ask unanimous consent that everybody else's opening statement be put into the record. This will give more time for testimony and more time for questions.    Without objection, that is so ordered.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, may I ask a parliamentary inquiry? What is happening to the opening statements?</t>
   </si>
   <si>
@@ -82,36 +76,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Horowitz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Horowitz. Thank you, Mr. Chairman, Ranking Member Jackson Lee, Members of the Subcommittee. Thank you for inviting me to testify today.    Federal agents are held to the highest standards of conduct, both on duty and off duty. As a former Federal prosecutor and as Inspector General, I know that the overwhelming majority of Department agents meet those high standards and perform their work with great integrity and honor, thereby keeping our communities safe and our country safe.    Nevertheless, we find instances where Department agents engage in serious misconduct, and even criminal violations, affecting the agency's reputation, potentially compromising prosecutions, and possibly affecting agency operations.    Furthermore, misconduct that involves sexual harassment affects employee morale and creates a hostile work environment.    Following the incidents during the President's trip to Colombia, the OIG conducted two reviews, one relating to Department policies and training involving off-duty misconduct by employees working in foreign countries, and one relating to the handling of allegations of sexual harassment and misconduct by Department law enforcement components.    Our off-duty conduct report found a lack of Department-wide policies or other training requirements pertaining to off-duty conduct, whether in the U.S. or other countries. This was particularly concerning given recommendations we made in 1996 that the Department provide additional training regarding off-duty conduct and examine the standards of conduct that apply to off-duty behavior. Despite our earlier recommendations, little had changed in the intervening two decades.    We did find the FBI made changes, including providing comprehensive training for its employees. However, the other three Department law enforcement components convey little or no information about off-duty conduct before sending their employees abroad. Having one of only four law enforcement components effectively prepare employees for these assignments demonstrates the need for Department-wide training and policies.    In March 2015, we issued our report on the nature of reporting, investigation, and adjudication of allegations of sexual harassment or misconduct in the Department's four law enforcement components. The report identified significant and systemic issues that require prompt corrective action. These include a lack of coordination between internal affairs offices and security personnel, failure to report misconduct allegations to component headquarters, failure to investigate allegations fully, weaknesses in the adjudication process, and weaknesses in detecting and preserving sexually explicit text messages and images. Together, these reviews demonstrate the need to improve disciplinary and security processes, as well as to clearly communicate Department expectations for employee conduct.    Strong and unequivocal action from leadership at all levels is critical to ensure employees meet the highest standards of conduct and are held fully accountable for any misconduct.    As we also described in our March report, the failure by the DEA and FBI to provide prompt information to us in response to our requests significantly impacted our review. Both agencies raised baseless objections and only relented when I elevated the issues to agency leadership. Even then, the information was incomplete.    In order to conduct effective oversight, an OIG must have timely and complete access to documents and materials. This review starkly demonstrates the danger in allowing those being reviewed to decide on their own what documents they will share with the OIG. These actions impeded our work, significantly delayed the discovery of the issues that we ultimately were able to identify, wasted Department and OIG resources, and affected our confidence in the completeness of our review.    Unfortunately, this was not an isolated incident, and we continue to face repeated instances in which our timely access to records is impeded. Congress recognized the significance of this issue in passing Section 218 in the recent Appropriations Act. Nevertheless, the FBI continues to proceed exactly as it did before Section 218 was enacted.    We were told an opinion from the Department's Office of Legal Counsel would resolve this issue. Yet 1 year later, after the Department Deputy Attorney General requested that opinion, we still don't have the opinion and we have no timeline for its completion. The Department has said the opinion is a priority, yet the length of time that has passed would suggest otherwise.    The American public deserves and expects an OIG that is able to conduct rigorous oversight of the Department's and FBI's activities. Unfortunately, our ability to do so is being undercut every day that goes by without a resolution of the dispute.    Thank you for your continued strong bipartisan support for our work, and I would welcome any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much, Mr. Horowitz.    Mr. Roth?</t>
   </si>
   <si>
-    <t>Roth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roth. Chairman Sensenbrenner, Ranking Member Jackson Lee, and Members of the Subcommittee, thank you for inviting me to testify here today to discuss Federal law enforcement misconduct within the Department of Homeland Security.    Inspectors General play a critical role in ensuring transparent, honest, effective, and accountable government. The personal and organizational independence of IG investigators, free to carry out their work without interference by agency officials, is essential in maintaining the public trust not only of the IG's work but of the DHS workforce as a whole.    Many DHS components have internal affairs offices that conduct investigations. Under the authority of the IG Act, the IG has oversight responsibility for those internal affairs offices. This oversight responsibility generally takes three forms.    First, we determine upon receipt of a complaint whether the allegations are of the type that should be investigated by the IG rather than the component's internal affairs office. A DHS management directive establishes the IG's right of first refusal to conduct investigations of misconduct by DHS employees.    Second, for those investigations the internal affairs offices conduct, we have the authority to receive reports on and monitor the status of those investigations.    Lastly, we conduct oversight reviews of DHS component internal affairs offices to ensure compliance with applicable policies, reporting requirements, and accepted law enforcement practices.    The Department employs more than 240,000 employees and nearly an equal number of contract personnel, including a large number of law enforcement officers and agents in the U.S. Customs and Border Protection, U.S. Immigration and Customs Enforcement, the Secret Service, and the Transportation Security Administration. We have about 200 investigators in headquarters and about 30 field offices across the country, which means we have less than one investigator for every thousand DHS employees.    Last year we received over 16,000 complaints. A substantial number of those complaints alleged DHS personnel engaged in misconduct. We initiated 564 investigations. The remainder were referred to component internal affairs offices, other agencies, or were closed. Our investigations resulted in 112 criminal convictions and 36 personnel actions. Thirteen of these convictions involved DHS law enforcement personnel, and 21 of the 36 personnel actions involved law enforcement. These convictions and personnel actions were for various offenses including theft, narcotics, child pornography and bribery.    In addition to the criminal matters we handled that are in my written testimony, we are also responsible for handling hundreds of complaints about employee misconduct. These include misuse of government assets, including government vehicles, failure to report certain contacts with foreign nationals, engaging in prohibited personnel practices, violation of conflict of interest restrictions on former DHS employees, violation of ethical standards concerning government employees, improper disclosure of classified or law enforcement-sensitive information, illegal drug use or excessive alcohol use, and domestic violence and other state and local crimes that affect fitness for duty.    Although a small percentage of our employees have committed criminal acts and other misconduct warranting sanctions, the behavior of these few should not be used to draw conclusions about the character, integrity, or work ethic of the many. I am personally grateful for the hard work and commitment to the mission demonstrated daily by the DHS workforce.    Mr. Chairman, this concludes my prepared statement. I welcome any questions you or other Members of the Subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much.    Mr. Whaley?</t>
   </si>
   <si>
-    <t>Whaley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whaley. Chairman Sensenbrenner, Ranking Member Jackson Lee, distinguished Members of the Subcommittee, thank you for the opportunity to testify here today. I appreciate the opportunity to explain how DEA responds to allegations of employee misconduct.    I currently lead DEA's Office of Professional Responsibility, which conducts investigations of all allegations of misconduct against DEA employees. Misconduct is generally defined as any violation of the Federal, state, or local law, or any violation of DEA standards of conduct. OPR also monitors trends in employee conduct and behavior; makes recommendations to DEA's executive management when there are weaknesses in DEA's internal controls, policies or procedures; and serves as a liaison to the Office of the Inspector General at the Department of Justice, as well as to other law enforcement internal affairs units in furtherance of misconduct investigations.    As a career special agent with over 30 years of law enforcement experience, I take my role seriously. I want to protect the reputation of all the DEA special agents that act with integrity in fulfilling our vital mission by holding accountable those who don't. We are DEA's single point of contact for all accusations of misconduct against any DEA employee, contractor, or deputized task force officer. This is true regardless of the source of the allegations, whether they are made anonymously by other DEA employees, supervisors, or the general public.    I can assure you my office takes every allegation of misconduct seriously and has procedures in place to ensure that complete, thorough, and fair investigations are conducted. DEA's Office of Professional Responsibility is the first of three parts of DEA's Integrity Assurance Program. Our role is limited to the investigation of allegations of misconduct. The Office of Professional Responsibility has no role in the process of imposing discipline. We collect and document the facts without opinion or bias and forward that information to DEA's Board of Professional Conduct, which imposes discipline. The case is subsequently forwarded to the office of the deciding official, who determines any disciplinary action.    The Office of Professional Responsibility works closely with the Office of the Inspector General of the Department of Justice to ensure all allegations are appropriately investigated. For every allegation that we receive, OPR shares the allegation with the Office of the Inspector General. OIG reviews each accusation of misconduct and determines how the complaint will be investigated. They can choose to investigate the complaint unilaterally, refer the complaint back to DEA and monitor the investigation, or they can refer the complaint back to OPR for us to investigate.    While I understand we are here to talk generally about how misconduct allegations are handled by Federal law enforcement, the recent report by the Inspector General is also relevant. We must constantly learn lessons and seek to improve our efforts.    In addition to implementing all of the OIG recommendations, DEA has taken concrete steps to improve both the training we provide DEA employees, as well as how we coordinate investigations when allegations are made in an effort to avoid such problems in the future. These steps include ensuring that it is clearly understood by all DEA employees that this kind of behavior is unacceptable; outlining steps that employees and supervisors must take when incidents occur; increasing training for all employees, particularly those employees assigned overseas; further explaining the guidelines for disciplinary offenses; and improving internal procedures so appropriate individuals and field management and the Office of Security Programs and the Office of Professional Responsibility are promptly made aware of allegations so they can take appropriate action in a timely manner.    Consistent with the recent direction put forth by the Attorney General which seeks to not only improve the communication between my office and the Office of Security Programs, but also to review the security clearances of the investigative subjects cited in the OIG report, I am committed to continuing to review and push for changes to improve this process. I appreciate the feedback provided by the OIG and look forward to continuing to work with them to improve our systems.    Thank you for the opportunity to be here with you today. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you, Mr. Whaley.    Mr. Hughes?</t>
   </si>
   <si>
-    <t>Hughes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hughes. Good afternoon, Chairman Sensenbrenner, Ranking Member Jackson Lee, Chairman Goodlatte, and distinguished Members of the Subcommittee. Thank you for the opportunity to appear before you to discuss recent enhancements to the Secret Service policies and procedures that address allegations of employee misconduct.    The Secret Service must address allegations of employee misconduct aggressively, fairly, and consistently. Any employee, regardless of rank or position, who violates our standards of conduct to include the failure to report misconduct will be held accountable.    Secret Service employees take great pride in successfully carrying out the vital mission of our agency on a daily basis around the world. Unfortunately, the successes of the many have been overshadowed by the unacceptable failures of the few, resulting in significant changes to the way in which the Secret Service adjudicates allegations of employee misconduct.    In May 2012, the Secret Service established the Professional Reinforcement Working Group, or the PRWG. This group, co-chaired by former OPM Director John Berry and Director Connie Patrick of the Federal Law Enforcement Training Center, affirmed many existing Secret Service practices and identified enhancements that could be implemented to further support the workforce. The Secret Service accepted these recommendations, and all of them have since been fully implemented.    Additionally, the DHS OIG issued a report in December of 2013 stating that it did not find evidence that misconduct is widespread in the Secret Service. However, the report contained a number of recommendations for the agency, some of which paralleled those of the PRWG, and all were fully implemented by April of 2014.    Several recommendations focused on establishing a robust disciplinary process grounded on transparency, consistency, and fairness. They also led to the establishment of an Office of Integrity, a new set of disciplinary policies and procedures, and the development of a Table of Penalties which identifies specific actions that constitute misconduct, along with a range of potential discipline.    As the process now stands, outside of a limited number of minor violations, allegations are required to be reported through the chain of command to the Office of Professional Responsibility, or the OPR. Under certain circumstances, including allegations that are criminal in nature or involve senior supervisory personnel, the agency must, pursuant to Department directives, refer the matter to the DHS OIG.    The OIG will then make a determination whether to accept the case for further investigation or refer the matter back to the OPR. Following either the OIG's declination of the referral or the completion of its investigation, the allegations are forwarded to the intake group chaired by the special agent in charge of the Secret Service Inspection Division.    Ultimately, substantiated allegations are presented to the Office of Integrity. Established in December of 2013, the Office of Integrity reports directly to the Office of the Deputy Director and oversees adherence to Secret Service code of conduct by impartially adjudicating employee misconduct in a fair, consistent, and timely manner. In accordance with the Table of Penalties and taking into consideration any mitigating factors such as the acceptance of responsibility or aggravating factors such as whether an employee holds a supervisory position, the Deputy Chief Integrity Officer will prepare a formal disciplinary proposal for presentation to the employee. Employees subject to disciplinary action are afforded certain procedural rights pursuant to Title 5 of the United States Code, regulations issued by OPM, and corresponding Secret Service disciplinary procedures. There is no doubt that the resulting process can take time and can be cumbersome. However, that system was put in place by Congress to protect the rights of the government employees, and we at the Secret Service must respect and operate within that framework.    The foundation of this discipline process is strong. Standards of conduct will, however, need to be periodically reinforced and in some instances adjusted, and the consequences for failing to meet them will need to be clearly communicated. These functions are core responsibilities of the Office of Integrity.    For instance, following the March 4 incident, Director Clancy, in coordination with my office, issued an official message to all Secret Service employees making clear that they are required to report through their chain of command any activities that violate the Secret Service standards of conduct.    Secret Service employees are provided with a number of avenues to report misconduct, including the ombudsman, the OPR, Inspection Division, the DHS OIG, or the U.S. Office of Special Counsel. Those who fail to properly report misconduct will be held accountable.    In summary, the Secret Service is committed to ensuring a strict code of professional conduct, a transparent process for administering discipline, and accountability regardless of rank or grade. While it is ultimately the individual responsibility of employees to adhere to the standards of conduct, the Secret Service understands that it must provide its employees with clear, comprehensive policies, and mechanisms to reinforce them. When misconduct is found to have occurred, there should be no doubt that there is a mechanism in place to deal with it swiftly, fairly, and consistently.    Chairman Sensenbrenner, Ranking Member Jackson Lee, this concludes my testimony. I appreciate the opportunity to explain the Secret Service disciplinary policy and I welcome any questions you may have. Thank you.</t>
   </si>
   <si>
@@ -193,9 +175,6 @@
     <t xml:space="preserve">    Mr. Sensenbrenner. The time of the gentlewoman has expired.    The gentleman from Virginia, the Chair of the full Committee, Mr. Goodlatte.</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    I have said many times how much respect I have for Federal law enforcement officers who combat the drug cartels and the scourge of drugs in this country, who track down terrorists and prevent terrorist attacks, who put their lives on the line to protect the President of the United States and others, and the people around him. But that is not why we are here today. This is very concerning to me.    Mr. Whaley's testimony says that the DEA generally has an excellent working relationship with the Office of the Inspector General, particularly when it comes to investigative matters. So I want to ask you, Mr. Horowitz, do you agree with that statement, and are you confident that the DEA is committed to reform in this area?</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman.    I would like to ask this question of Mr. Horowitz, Mr. Roth and Mr. Whaley.    Recently it has come to light that in 2013 the DEA was caught impersonating an individual on Facebook, including using provocative photos of her and pictures of her children without her permission or knowledge. In a January 2015 article in Newsweek magazine, it stated that the Justice Department recently reached a settlement with the woman impersonated by the DEA to the tune of $134,000 of taxpayer money.    Additionally, there is a presentation that was put together by the DHS Inspector General's Office explaining how to use fake Facebook pages in an attempt to infiltrate drug rings. At the same time, the FBI is shopping for location-based social media monitoring.    Should law enforcement be able to utilize social media to monitor or impersonate Americans without a court order or informed consent of the Americans being impersonated, as other types of monitoring require?</t>
   </si>
   <si>
@@ -289,9 +265,6 @@
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    Thank you all for being here.    I am embarrassed about this whole situation. It is embarrassing. It is embarrassing to the country.    I am a former criminal court judge. I know a lot of peace officers. And like has been said, generally speaking, peace officers do the work nobody else would do. I respect them a great deal. And this conduct that has been discussed here today is not so much a reflection on the rest of us, but it hurts good peace officers throughout the country, those that work at the DEA, Secret Service, and state agencies, because too many want to classify all of them based upon the conduct of a few here.    But the ones, from what I hear, it seems like some believe in this system that the rule is for thee but not for me, and they are not held accountable for what they do as other people in the country would be held accountable for.    So, Mr. Whaley, just based upon looking at you, you seem to be a little embarrassed about this whole situation. Is that a fair statement?</t>
   </si>
   <si>
@@ -454,9 +427,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here, for your service.    I am concerned about these actions, mostly because of what it does with the trust that the general public has with law enforcement, and I assume that you have the same concern. It seems, at a time when we have this 24-hour news and we have all these issues that are happening in America, that continuing to talk about these issues is bringing down the trust that the American people have in your agencies, and I don't want that. I want the opposite. I want people to really feel like they are being empowered and being protected by your agencies.    Mr. Horowitz, I have a few questions for you. In your written testimony you discuss the lack of clarity regarding off-duty conduct for agency personnel and relate that these conduct requirements have not been updated since 1996. I understand that clarity for off-duty conduct is vital. However, don't you find that a little bit troubling, that these agencies would require more training and more clarity just to determine that hiring prostitutes is not the right thing when you are protecting the President of the United States?</t>
   </si>
   <si>
@@ -497,9 +467,6 @@
   </si>
   <si>
     <t>412432</t>
-  </si>
-  <si>
-    <t>Cedric L. Richmond</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman.    Mr. Horowitz, are you familiar with the incident in the U.S. Attorney's Office in the Eastern District of Louisiana where top Assistant U.S. Attorneys were blogging and commenting on cases online?</t>
@@ -952,11 +919,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -978,11 +943,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1002,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1030,11 +991,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1054,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1082,11 +1039,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1106,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1134,11 +1087,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1158,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1186,11 +1135,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1210,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1238,11 +1183,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1262,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1290,11 +1231,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1314,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1342,11 +1279,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1366,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1394,11 +1327,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1418,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1446,11 +1375,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1470,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1498,11 +1423,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1522,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1550,11 +1471,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1574,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1602,11 +1519,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1626,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1654,11 +1567,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1678,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1706,11 +1615,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1730,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1756,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1782,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1808,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1834,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1860,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1886,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1912,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1940,11 +1831,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1964,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1990,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2016,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2042,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2068,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2094,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2120,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>59</v>
-      </c>
-      <c r="H47" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2146,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2172,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2198,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2224,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2250,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2276,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2302,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2328,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2354,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2380,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>59</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2408,11 +2263,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2432,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2458,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2484,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2510,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2536,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2562,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2588,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>78</v>
-      </c>
-      <c r="G65" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2614,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2640,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2668,11 +2503,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2692,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2718,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2744,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2770,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2796,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2822,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2848,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2874,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2900,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" t="s">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>91</v>
-      </c>
-      <c r="H77" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2926,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2952,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
-      </c>
-      <c r="G79" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2978,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3004,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3030,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3056,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3082,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3108,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3134,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3160,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
-      </c>
-      <c r="G87" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3186,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3212,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3238,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3264,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
-      </c>
-      <c r="G91" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3290,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3316,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3342,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3368,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>90</v>
-      </c>
-      <c r="G95" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3396,11 +3175,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3420,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>90</v>
-      </c>
-      <c r="G97" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3446,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3472,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>90</v>
-      </c>
-      <c r="G99" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3498,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3524,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>90</v>
-      </c>
-      <c r="G101" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3550,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3576,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>90</v>
-      </c>
-      <c r="G103" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3602,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3628,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>90</v>
-      </c>
-      <c r="G105" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3654,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3680,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>90</v>
-      </c>
-      <c r="G107" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3706,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3732,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>90</v>
-      </c>
-      <c r="G109" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3758,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3784,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>90</v>
-      </c>
-      <c r="G111" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3810,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3836,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>90</v>
-      </c>
-      <c r="G113" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3862,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3888,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>90</v>
-      </c>
-      <c r="G115" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3914,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3940,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>90</v>
-      </c>
-      <c r="G117" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3966,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>31</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3992,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>90</v>
-      </c>
-      <c r="G119" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4020,11 +3751,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4044,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>90</v>
-      </c>
-      <c r="G121" t="s">
-        <v>91</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4072,11 +3799,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4096,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>145</v>
-      </c>
-      <c r="G123" t="s">
-        <v>146</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4122,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4148,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>145</v>
-      </c>
-      <c r="G125" t="s">
-        <v>146</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4174,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4200,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>145</v>
-      </c>
-      <c r="G127" t="s">
-        <v>146</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4226,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4252,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>145</v>
-      </c>
-      <c r="G129" t="s">
-        <v>146</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4278,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4304,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
+        <v>136</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
         <v>145</v>
-      </c>
-      <c r="G131" t="s">
-        <v>146</v>
-      </c>
-      <c r="H131" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4330,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4356,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>145</v>
-      </c>
-      <c r="G133" t="s">
-        <v>146</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4382,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4410,11 +4111,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4434,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>160</v>
-      </c>
-      <c r="G136" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4460,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4486,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
-      </c>
-      <c r="G138" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4512,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4538,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>160</v>
-      </c>
-      <c r="G140" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4564,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4590,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>160</v>
-      </c>
-      <c r="G142" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4618,11 +4303,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4642,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4670,11 +4351,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4694,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4720,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4746,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4772,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4798,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4824,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4852,11 +4519,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4876,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4904,11 +4567,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94185.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94185.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400365</t>
   </si>
   <si>
+    <t>Sensenbrenner</t>
+  </si>
+  <si>
+    <t>F.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. The Subcommittee on Crime, Terrorism, Homeland Security, and Investigations will come to order.    Let me say, we are due to have roll calls a little bit after 3:15, and in order to save time, I am going to ask unanimous consent to put my opening statement into the record and ask unanimous consent that everybody else's opening statement be put into the record. This will give more time for testimony and more time for questions.    Without objection, that is so ordered.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, may I ask a parliamentary inquiry? What is happening to the opening statements?</t>
   </si>
   <si>
@@ -76,24 +91,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Horowitz</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Horowitz. Thank you, Mr. Chairman, Ranking Member Jackson Lee, Members of the Subcommittee. Thank you for inviting me to testify today.    Federal agents are held to the highest standards of conduct, both on duty and off duty. As a former Federal prosecutor and as Inspector General, I know that the overwhelming majority of Department agents meet those high standards and perform their work with great integrity and honor, thereby keeping our communities safe and our country safe.    Nevertheless, we find instances where Department agents engage in serious misconduct, and even criminal violations, affecting the agency's reputation, potentially compromising prosecutions, and possibly affecting agency operations.    Furthermore, misconduct that involves sexual harassment affects employee morale and creates a hostile work environment.    Following the incidents during the President's trip to Colombia, the OIG conducted two reviews, one relating to Department policies and training involving off-duty misconduct by employees working in foreign countries, and one relating to the handling of allegations of sexual harassment and misconduct by Department law enforcement components.    Our off-duty conduct report found a lack of Department-wide policies or other training requirements pertaining to off-duty conduct, whether in the U.S. or other countries. This was particularly concerning given recommendations we made in 1996 that the Department provide additional training regarding off-duty conduct and examine the standards of conduct that apply to off-duty behavior. Despite our earlier recommendations, little had changed in the intervening two decades.    We did find the FBI made changes, including providing comprehensive training for its employees. However, the other three Department law enforcement components convey little or no information about off-duty conduct before sending their employees abroad. Having one of only four law enforcement components effectively prepare employees for these assignments demonstrates the need for Department-wide training and policies.    In March 2015, we issued our report on the nature of reporting, investigation, and adjudication of allegations of sexual harassment or misconduct in the Department's four law enforcement components. The report identified significant and systemic issues that require prompt corrective action. These include a lack of coordination between internal affairs offices and security personnel, failure to report misconduct allegations to component headquarters, failure to investigate allegations fully, weaknesses in the adjudication process, and weaknesses in detecting and preserving sexually explicit text messages and images. Together, these reviews demonstrate the need to improve disciplinary and security processes, as well as to clearly communicate Department expectations for employee conduct.    Strong and unequivocal action from leadership at all levels is critical to ensure employees meet the highest standards of conduct and are held fully accountable for any misconduct.    As we also described in our March report, the failure by the DEA and FBI to provide prompt information to us in response to our requests significantly impacted our review. Both agencies raised baseless objections and only relented when I elevated the issues to agency leadership. Even then, the information was incomplete.    In order to conduct effective oversight, an OIG must have timely and complete access to documents and materials. This review starkly demonstrates the danger in allowing those being reviewed to decide on their own what documents they will share with the OIG. These actions impeded our work, significantly delayed the discovery of the issues that we ultimately were able to identify, wasted Department and OIG resources, and affected our confidence in the completeness of our review.    Unfortunately, this was not an isolated incident, and we continue to face repeated instances in which our timely access to records is impeded. Congress recognized the significance of this issue in passing Section 218 in the recent Appropriations Act. Nevertheless, the FBI continues to proceed exactly as it did before Section 218 was enacted.    We were told an opinion from the Department's Office of Legal Counsel would resolve this issue. Yet 1 year later, after the Department Deputy Attorney General requested that opinion, we still don't have the opinion and we have no timeline for its completion. The Department has said the opinion is a priority, yet the length of time that has passed would suggest otherwise.    The American public deserves and expects an OIG that is able to conduct rigorous oversight of the Department's and FBI's activities. Unfortunately, our ability to do so is being undercut every day that goes by without a resolution of the dispute.    Thank you for your continued strong bipartisan support for our work, and I would welcome any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much, Mr. Horowitz.    Mr. Roth?</t>
   </si>
   <si>
+    <t>Roth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roth. Chairman Sensenbrenner, Ranking Member Jackson Lee, and Members of the Subcommittee, thank you for inviting me to testify here today to discuss Federal law enforcement misconduct within the Department of Homeland Security.    Inspectors General play a critical role in ensuring transparent, honest, effective, and accountable government. The personal and organizational independence of IG investigators, free to carry out their work without interference by agency officials, is essential in maintaining the public trust not only of the IG's work but of the DHS workforce as a whole.    Many DHS components have internal affairs offices that conduct investigations. Under the authority of the IG Act, the IG has oversight responsibility for those internal affairs offices. This oversight responsibility generally takes three forms.    First, we determine upon receipt of a complaint whether the allegations are of the type that should be investigated by the IG rather than the component's internal affairs office. A DHS management directive establishes the IG's right of first refusal to conduct investigations of misconduct by DHS employees.    Second, for those investigations the internal affairs offices conduct, we have the authority to receive reports on and monitor the status of those investigations.    Lastly, we conduct oversight reviews of DHS component internal affairs offices to ensure compliance with applicable policies, reporting requirements, and accepted law enforcement practices.    The Department employs more than 240,000 employees and nearly an equal number of contract personnel, including a large number of law enforcement officers and agents in the U.S. Customs and Border Protection, U.S. Immigration and Customs Enforcement, the Secret Service, and the Transportation Security Administration. We have about 200 investigators in headquarters and about 30 field offices across the country, which means we have less than one investigator for every thousand DHS employees.    Last year we received over 16,000 complaints. A substantial number of those complaints alleged DHS personnel engaged in misconduct. We initiated 564 investigations. The remainder were referred to component internal affairs offices, other agencies, or were closed. Our investigations resulted in 112 criminal convictions and 36 personnel actions. Thirteen of these convictions involved DHS law enforcement personnel, and 21 of the 36 personnel actions involved law enforcement. These convictions and personnel actions were for various offenses including theft, narcotics, child pornography and bribery.    In addition to the criminal matters we handled that are in my written testimony, we are also responsible for handling hundreds of complaints about employee misconduct. These include misuse of government assets, including government vehicles, failure to report certain contacts with foreign nationals, engaging in prohibited personnel practices, violation of conflict of interest restrictions on former DHS employees, violation of ethical standards concerning government employees, improper disclosure of classified or law enforcement-sensitive information, illegal drug use or excessive alcohol use, and domestic violence and other state and local crimes that affect fitness for duty.    Although a small percentage of our employees have committed criminal acts and other misconduct warranting sanctions, the behavior of these few should not be used to draw conclusions about the character, integrity, or work ethic of the many. I am personally grateful for the hard work and commitment to the mission demonstrated daily by the DHS workforce.    Mr. Chairman, this concludes my prepared statement. I welcome any questions you or other Members of the Subcommittee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you very much.    Mr. Whaley?</t>
   </si>
   <si>
+    <t>Whaley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whaley. Chairman Sensenbrenner, Ranking Member Jackson Lee, distinguished Members of the Subcommittee, thank you for the opportunity to testify here today. I appreciate the opportunity to explain how DEA responds to allegations of employee misconduct.    I currently lead DEA's Office of Professional Responsibility, which conducts investigations of all allegations of misconduct against DEA employees. Misconduct is generally defined as any violation of the Federal, state, or local law, or any violation of DEA standards of conduct. OPR also monitors trends in employee conduct and behavior; makes recommendations to DEA's executive management when there are weaknesses in DEA's internal controls, policies or procedures; and serves as a liaison to the Office of the Inspector General at the Department of Justice, as well as to other law enforcement internal affairs units in furtherance of misconduct investigations.    As a career special agent with over 30 years of law enforcement experience, I take my role seriously. I want to protect the reputation of all the DEA special agents that act with integrity in fulfilling our vital mission by holding accountable those who don't. We are DEA's single point of contact for all accusations of misconduct against any DEA employee, contractor, or deputized task force officer. This is true regardless of the source of the allegations, whether they are made anonymously by other DEA employees, supervisors, or the general public.    I can assure you my office takes every allegation of misconduct seriously and has procedures in place to ensure that complete, thorough, and fair investigations are conducted. DEA's Office of Professional Responsibility is the first of three parts of DEA's Integrity Assurance Program. Our role is limited to the investigation of allegations of misconduct. The Office of Professional Responsibility has no role in the process of imposing discipline. We collect and document the facts without opinion or bias and forward that information to DEA's Board of Professional Conduct, which imposes discipline. The case is subsequently forwarded to the office of the deciding official, who determines any disciplinary action.    The Office of Professional Responsibility works closely with the Office of the Inspector General of the Department of Justice to ensure all allegations are appropriately investigated. For every allegation that we receive, OPR shares the allegation with the Office of the Inspector General. OIG reviews each accusation of misconduct and determines how the complaint will be investigated. They can choose to investigate the complaint unilaterally, refer the complaint back to DEA and monitor the investigation, or they can refer the complaint back to OPR for us to investigate.    While I understand we are here to talk generally about how misconduct allegations are handled by Federal law enforcement, the recent report by the Inspector General is also relevant. We must constantly learn lessons and seek to improve our efforts.    In addition to implementing all of the OIG recommendations, DEA has taken concrete steps to improve both the training we provide DEA employees, as well as how we coordinate investigations when allegations are made in an effort to avoid such problems in the future. These steps include ensuring that it is clearly understood by all DEA employees that this kind of behavior is unacceptable; outlining steps that employees and supervisors must take when incidents occur; increasing training for all employees, particularly those employees assigned overseas; further explaining the guidelines for disciplinary offenses; and improving internal procedures so appropriate individuals and field management and the Office of Security Programs and the Office of Professional Responsibility are promptly made aware of allegations so they can take appropriate action in a timely manner.    Consistent with the recent direction put forth by the Attorney General which seeks to not only improve the communication between my office and the Office of Security Programs, but also to review the security clearances of the investigative subjects cited in the OIG report, I am committed to continuing to review and push for changes to improve this process. I appreciate the feedback provided by the OIG and look forward to continuing to work with them to improve our systems.    Thank you for the opportunity to be here with you today. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Sensenbrenner. Thank you, Mr. Whaley.    Mr. Hughes?</t>
   </si>
   <si>
+    <t>Hughes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hughes. Good afternoon, Chairman Sensenbrenner, Ranking Member Jackson Lee, Chairman Goodlatte, and distinguished Members of the Subcommittee. Thank you for the opportunity to appear before you to discuss recent enhancements to the Secret Service policies and procedures that address allegations of employee misconduct.    The Secret Service must address allegations of employee misconduct aggressively, fairly, and consistently. Any employee, regardless of rank or position, who violates our standards of conduct to include the failure to report misconduct will be held accountable.    Secret Service employees take great pride in successfully carrying out the vital mission of our agency on a daily basis around the world. Unfortunately, the successes of the many have been overshadowed by the unacceptable failures of the few, resulting in significant changes to the way in which the Secret Service adjudicates allegations of employee misconduct.    In May 2012, the Secret Service established the Professional Reinforcement Working Group, or the PRWG. This group, co-chaired by former OPM Director John Berry and Director Connie Patrick of the Federal Law Enforcement Training Center, affirmed many existing Secret Service practices and identified enhancements that could be implemented to further support the workforce. The Secret Service accepted these recommendations, and all of them have since been fully implemented.    Additionally, the DHS OIG issued a report in December of 2013 stating that it did not find evidence that misconduct is widespread in the Secret Service. However, the report contained a number of recommendations for the agency, some of which paralleled those of the PRWG, and all were fully implemented by April of 2014.    Several recommendations focused on establishing a robust disciplinary process grounded on transparency, consistency, and fairness. They also led to the establishment of an Office of Integrity, a new set of disciplinary policies and procedures, and the development of a Table of Penalties which identifies specific actions that constitute misconduct, along with a range of potential discipline.    As the process now stands, outside of a limited number of minor violations, allegations are required to be reported through the chain of command to the Office of Professional Responsibility, or the OPR. Under certain circumstances, including allegations that are criminal in nature or involve senior supervisory personnel, the agency must, pursuant to Department directives, refer the matter to the DHS OIG.    The OIG will then make a determination whether to accept the case for further investigation or refer the matter back to the OPR. Following either the OIG's declination of the referral or the completion of its investigation, the allegations are forwarded to the intake group chaired by the special agent in charge of the Secret Service Inspection Division.    Ultimately, substantiated allegations are presented to the Office of Integrity. Established in December of 2013, the Office of Integrity reports directly to the Office of the Deputy Director and oversees adherence to Secret Service code of conduct by impartially adjudicating employee misconduct in a fair, consistent, and timely manner. In accordance with the Table of Penalties and taking into consideration any mitigating factors such as the acceptance of responsibility or aggravating factors such as whether an employee holds a supervisory position, the Deputy Chief Integrity Officer will prepare a formal disciplinary proposal for presentation to the employee. Employees subject to disciplinary action are afforded certain procedural rights pursuant to Title 5 of the United States Code, regulations issued by OPM, and corresponding Secret Service disciplinary procedures. There is no doubt that the resulting process can take time and can be cumbersome. However, that system was put in place by Congress to protect the rights of the government employees, and we at the Secret Service must respect and operate within that framework.    The foundation of this discipline process is strong. Standards of conduct will, however, need to be periodically reinforced and in some instances adjusted, and the consequences for failing to meet them will need to be clearly communicated. These functions are core responsibilities of the Office of Integrity.    For instance, following the March 4 incident, Director Clancy, in coordination with my office, issued an official message to all Secret Service employees making clear that they are required to report through their chain of command any activities that violate the Secret Service standards of conduct.    Secret Service employees are provided with a number of avenues to report misconduct, including the ombudsman, the OPR, Inspection Division, the DHS OIG, or the U.S. Office of Special Counsel. Those who fail to properly report misconduct will be held accountable.    In summary, the Secret Service is committed to ensuring a strict code of professional conduct, a transparent process for administering discipline, and accountability regardless of rank or grade. While it is ultimately the individual responsibility of employees to adhere to the standards of conduct, the Secret Service understands that it must provide its employees with clear, comprehensive policies, and mechanisms to reinforce them. When misconduct is found to have occurred, there should be no doubt that there is a mechanism in place to deal with it swiftly, fairly, and consistently.    Chairman Sensenbrenner, Ranking Member Jackson Lee, this concludes my testimony. I appreciate the opportunity to explain the Secret Service disciplinary policy and I welcome any questions you may have. Thank you.</t>
   </si>
   <si>
@@ -175,6 +202,9 @@
     <t xml:space="preserve">    Mr. Sensenbrenner. The time of the gentlewoman has expired.    The gentleman from Virginia, the Chair of the full Committee, Mr. Goodlatte.</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    I have said many times how much respect I have for Federal law enforcement officers who combat the drug cartels and the scourge of drugs in this country, who track down terrorists and prevent terrorist attacks, who put their lives on the line to protect the President of the United States and others, and the people around him. But that is not why we are here today. This is very concerning to me.    Mr. Whaley's testimony says that the DEA generally has an excellent working relationship with the Office of the Inspector General, particularly when it comes to investigative matters. So I want to ask you, Mr. Horowitz, do you agree with that statement, and are you confident that the DEA is committed to reform in this area?</t>
   </si>
   <si>
@@ -232,6 +262,12 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman.    I would like to ask this question of Mr. Horowitz, Mr. Roth and Mr. Whaley.    Recently it has come to light that in 2013 the DEA was caught impersonating an individual on Facebook, including using provocative photos of her and pictures of her children without her permission or knowledge. In a January 2015 article in Newsweek magazine, it stated that the Justice Department recently reached a settlement with the woman impersonated by the DEA to the tune of $134,000 of taxpayer money.    Additionally, there is a presentation that was put together by the DHS Inspector General's Office explaining how to use fake Facebook pages in an attempt to infiltrate drug rings. At the same time, the FBI is shopping for location-based social media monitoring.    Should law enforcement be able to utilize social media to monitor or impersonate Americans without a court order or informed consent of the Americans being impersonated, as other types of monitoring require?</t>
   </si>
   <si>
@@ -265,6 +301,12 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    Thank you all for being here.    I am embarrassed about this whole situation. It is embarrassing. It is embarrassing to the country.    I am a former criminal court judge. I know a lot of peace officers. And like has been said, generally speaking, peace officers do the work nobody else would do. I respect them a great deal. And this conduct that has been discussed here today is not so much a reflection on the rest of us, but it hurts good peace officers throughout the country, those that work at the DEA, Secret Service, and state agencies, because too many want to classify all of them based upon the conduct of a few here.    But the ones, from what I hear, it seems like some believe in this system that the rule is for thee but not for me, and they are not held accountable for what they do as other people in the country would be held accountable for.    So, Mr. Whaley, just based upon looking at you, you seem to be a little embarrassed about this whole situation. Is that a fair statement?</t>
   </si>
   <si>
@@ -427,6 +469,12 @@
     <t>412419</t>
   </si>
   <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman.    Thank you, gentlemen, for being here, for your service.    I am concerned about these actions, mostly because of what it does with the trust that the general public has with law enforcement, and I assume that you have the same concern. It seems, at a time when we have this 24-hour news and we have all these issues that are happening in America, that continuing to talk about these issues is bringing down the trust that the American people have in your agencies, and I don't want that. I want the opposite. I want people to really feel like they are being empowered and being protected by your agencies.    Mr. Horowitz, I have a few questions for you. In your written testimony you discuss the lack of clarity regarding off-duty conduct for agency personnel and relate that these conduct requirements have not been updated since 1996. I understand that clarity for off-duty conduct is vital. However, don't you find that a little bit troubling, that these agencies would require more training and more clarity just to determine that hiring prostitutes is not the right thing when you are protecting the President of the United States?</t>
   </si>
   <si>
@@ -467,6 +515,12 @@
   </si>
   <si>
     <t>412432</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Cedric</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman.    Mr. Horowitz, are you familiar with the incident in the U.S. Attorney's Office in the Eastern District of Louisiana where top Assistant U.S. Attorneys were blogging and commenting on cases online?</t>
@@ -869,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +931,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3677 +953,4299 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G61" t="s">
+        <v>82</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G77" t="s">
+        <v>95</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>95</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G81" t="s">
+        <v>95</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G83" t="s">
+        <v>95</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G85" t="s">
+        <v>95</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G87" t="s">
+        <v>95</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>82</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G89" t="s">
+        <v>95</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G91" t="s">
+        <v>95</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>82</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G93" t="s">
+        <v>95</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>82</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G95" t="s">
+        <v>95</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>82</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G97" t="s">
+        <v>95</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>82</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G99" t="s">
+        <v>95</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>82</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G101" t="s">
+        <v>95</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>82</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G103" t="s">
+        <v>95</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G105" t="s">
+        <v>95</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>82</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G107" t="s">
+        <v>95</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G109" t="s">
+        <v>95</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>82</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G111" t="s">
+        <v>95</v>
+      </c>
       <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>82</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G113" t="s">
+        <v>95</v>
+      </c>
       <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>82</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G115" t="s">
+        <v>95</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>82</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G117" t="s">
+        <v>95</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>82</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G119" t="s">
+        <v>95</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>82</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G121" t="s">
+        <v>95</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G123" t="s">
+        <v>151</v>
+      </c>
       <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G125" t="s">
+        <v>151</v>
+      </c>
       <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s">
+        <v>25</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>136</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G127" t="s">
+        <v>151</v>
+      </c>
       <c r="H127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s">
+        <v>25</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>136</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G129" t="s">
+        <v>151</v>
+      </c>
       <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s">
+        <v>25</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>136</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G131" t="s">
+        <v>151</v>
+      </c>
       <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s">
+        <v>25</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>136</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="G133" t="s">
+        <v>151</v>
+      </c>
       <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s">
+        <v>25</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>150</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G136" t="s">
+        <v>167</v>
+      </c>
       <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s">
+        <v>25</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>150</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G138" t="s">
+        <v>167</v>
+      </c>
       <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s">
+        <v>25</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>150</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G140" t="s">
+        <v>167</v>
+      </c>
       <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>25</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>166</v>
+      </c>
+      <c r="G142" t="s">
+        <v>167</v>
+      </c>
       <c r="H142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>168</v>
+      </c>
+      <c r="I142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>18</v>
+      </c>
       <c r="H144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
       <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
       <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>18</v>
+      </c>
       <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94185.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94185.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400365</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Sensenbrenner</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Jackson Lee</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Chabot</t>
@@ -923,7 +935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +943,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,4296 +968,4612 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>65</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>65</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G73" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G75" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G77" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G79" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G81" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G83" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G85" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H85" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G89" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H91" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G95" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G97" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G99" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>37</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G101" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>37</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G103" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I103" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>34</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G105" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G107" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H107" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G109" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G111" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>34</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>37</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G113" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>34</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>37</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G115" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G117" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H117" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>34</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G119" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G121" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I121" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G123" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G125" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I125" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>28</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G127" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G129" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I129" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>28</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G131" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I131" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>25</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>28</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G133" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="H133" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I133" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>156</v>
+      </c>
+      <c r="J133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>28</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G136" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="H136" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I136" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>25</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>28</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G138" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="H138" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>28</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G140" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I140" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>28</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G142" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G144" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I144" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H146" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I146" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>34</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H148" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I148" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>31</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>34</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I150" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>31</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>34</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H153" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I153" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>186</v>
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
